--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/10,12,25 Ост КИ Табота/Заказ Новое Время 14,12. Табота№8.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/10,12,25 Ост КИ Табота/Заказ Новое Время 14,12. Табота№8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\12,25\10,12,25 Ост КИ Табота\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302EC6CA-7532-477B-9ADA-710172957551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98FF863-8B5F-4F4D-A011-C37E8CE9997D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,14 +1566,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1664"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="46" t="s">
         <v>19</v>
@@ -1714,7 +1714,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="str">
         <f t="shared" ref="A11:A32" si="0">RIGHT(D11,4)</f>
         <v>6415</v>
@@ -1745,7 +1745,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4063</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6333</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4558</v>
@@ -1831,7 +1831,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6978</v>
@@ -1855,7 +1855,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4561</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6769</v>
@@ -1935,7 +1935,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6861</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6340</v>
@@ -1991,7 +1991,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6341</v>
@@ -2017,7 +2017,7 @@
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6862</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6392</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6353</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6268</v>
@@ -2197,7 +2197,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6324</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6498</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7125</v>
@@ -2283,7 +2283,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2675</v>
@@ -2307,7 +2307,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2324,7 +2324,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="47"/>
     </row>
-    <row r="33" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59">
         <v>7255</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="J33" s="67"/>
       <c r="K33" s="27"/>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
         <f t="shared" ref="A34:A46" si="2">RIGHT(D34,4)</f>
         <v>6602</v>
@@ -2414,7 +2414,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="str">
         <f t="shared" si="2"/>
         <v>5819</v>
@@ -2445,7 +2445,7 @@
       <c r="J36" s="29"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6762</v>
@@ -2472,7 +2472,7 @@
       <c r="J37" s="29"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6765</v>
@@ -2499,7 +2499,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6759</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6767</v>
@@ -2641,7 +2641,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6475</v>
@@ -2672,7 +2672,7 @@
       <c r="J44" s="29"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6713</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6069</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="J46" s="29"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59">
         <v>7284</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="I47" s="14"/>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="str">
         <f t="shared" ref="A48:A79" si="3">RIGHT(D48,4)</f>
         <v>6764</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J48" s="29"/>
     </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6829</v>
@@ -2843,7 +2843,7 @@
       <c r="I50" s="14"/>
       <c r="J50" s="29"/>
     </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7073</v>
@@ -2869,7 +2869,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="29"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6761</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="J52" s="29"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7080</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7066</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="59" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2976,7 +2976,7 @@
       <c r="I55" s="46"/>
       <c r="J55" s="47"/>
     </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7001</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="J56" s="76"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6527</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="J57" s="29"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6550</v>
@@ -3062,7 +3062,7 @@
       <c r="I58" s="14"/>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6608</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="J59" s="29"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="59" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3109,7 +3109,7 @@
       <c r="I60" s="46"/>
       <c r="J60" s="47"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6586</v>
@@ -3135,7 +3135,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="29"/>
     </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7144</v>
@@ -3161,7 +3161,7 @@
       <c r="I62" s="14"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7146</v>
@@ -3211,7 +3211,7 @@
       <c r="I64" s="14"/>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7131</v>
@@ -3235,7 +3235,7 @@
       <c r="I65" s="14"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7233</v>
@@ -3261,7 +3261,7 @@
       <c r="I66" s="14"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6666</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7173</v>
@@ -3345,7 +3345,7 @@
       <c r="I69" s="14"/>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6773</v>
@@ -3403,7 +3403,7 @@
       <c r="I71" s="14"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6683</v>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5489</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6701</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7237</v>
@@ -3577,7 +3577,7 @@
       <c r="I77" s="14"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6684</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6689</v>
@@ -3745,7 +3745,7 @@
       <c r="I83" s="14"/>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5341</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J85" s="29"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6790</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="J86" s="71"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="str">
         <f t="shared" si="6"/>
         <v>7133</v>
@@ -3859,7 +3859,7 @@
       <c r="I87" s="14"/>
       <c r="J87" s="71"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6791</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="J88" s="71"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6792</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J89" s="71"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6564</v>
@@ -3941,7 +3941,7 @@
       <c r="I90" s="14"/>
       <c r="J90" s="71"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="59" t="str">
         <f t="shared" si="6"/>
         <v>7238</v>
@@ -3967,7 +3967,7 @@
       <c r="I91" s="14"/>
       <c r="J91" s="71"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6565</v>
@@ -3993,7 +3993,7 @@
       <c r="I92" s="14"/>
       <c r="J92" s="71"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="59" t="str">
         <f t="shared" si="6"/>
         <v>7240</v>
@@ -4075,7 +4075,7 @@
       <c r="I95" s="14"/>
       <c r="J95" s="71"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6793</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="J96" s="71"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6794</v>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J97" s="71"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6665</v>
@@ -4159,7 +4159,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="71"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6795</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J99" s="71"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6796</v>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="J100" s="71"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6804</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="J101" s="71"/>
     </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6803</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="J102" s="71"/>
     </row>
-    <row r="103" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6807</v>
@@ -4300,7 +4300,7 @@
       <c r="J103" s="71"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="59" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4318,7 +4318,7 @@
       <c r="J104" s="47"/>
       <c r="K104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A105" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5931</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="J105" s="67"/>
     </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6834</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="59" t="str">
         <f t="shared" si="6"/>
         <v>6454</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="J107" s="29"/>
     </row>
-    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="59" t="str">
         <f t="shared" si="6"/>
         <v>5708</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="J108" s="29"/>
     </row>
-    <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="59" t="str">
         <f t="shared" si="6"/>
         <v>0614</v>
@@ -4462,7 +4462,7 @@
       <c r="I109" s="14"/>
       <c r="J109" s="29"/>
     </row>
-    <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="59" t="str">
         <f t="shared" si="6"/>
         <v>1146</v>
@@ -4486,7 +4486,7 @@
       <c r="I110" s="14"/>
       <c r="J110" s="29"/>
     </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="59" t="str">
         <f t="shared" si="6"/>
         <v>4154</v>
@@ -4510,7 +4510,7 @@
       <c r="I111" s="14"/>
       <c r="J111" s="29"/>
     </row>
-    <row r="112" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="59" t="str">
         <f t="shared" ref="A112:A139" si="8">RIGHT(D112,4)</f>
         <v>6967</v>
@@ -4536,7 +4536,7 @@
       <c r="I112" s="14"/>
       <c r="J112" s="29"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="59" t="str">
         <f t="shared" si="8"/>
         <v>4993</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="J113" s="29"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6937</v>
@@ -4592,7 +4592,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="29"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5682</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J115" s="29"/>
     </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5679</v>
@@ -4648,7 +4648,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="59" t="str">
         <f t="shared" si="8"/>
         <v>4117</v>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="J117" s="29"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5483</v>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6453</v>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="J119" s="29"/>
     </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6557</v>
@@ -4764,7 +4764,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="29"/>
     </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6228</v>
@@ -4790,7 +4790,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="29"/>
     </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6221</v>
@@ -4816,7 +4816,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="29"/>
     </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="59" t="str">
         <f t="shared" si="8"/>
         <v>3287</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J123" s="29"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="59" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4863,7 +4863,7 @@
       <c r="I124" s="46"/>
       <c r="J124" s="47"/>
     </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A125" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6866</v>
@@ -4887,7 +4887,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="59" t="str">
         <f t="shared" si="8"/>
         <v>3215</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6025</v>
@@ -4941,7 +4941,7 @@
       <c r="I127" s="14"/>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6470</v>
@@ -4965,7 +4965,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="59" t="str">
         <f t="shared" si="8"/>
         <v>4584</v>
@@ -4989,7 +4989,7 @@
       <c r="I129" s="14"/>
       <c r="J129" s="29"/>
     </row>
-    <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6472</v>
@@ -5013,7 +5013,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="29"/>
     </row>
-    <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5452</v>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="59" t="str">
         <f t="shared" si="8"/>
         <v>5495</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="J132" s="29"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6495</v>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="J133" s="29"/>
     </row>
-    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="59" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5120,7 +5120,7 @@
       <c r="I134" s="46"/>
       <c r="J134" s="47"/>
     </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A135" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6448</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J135" s="29"/>
     </row>
-    <row r="136" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="59" t="str">
         <f t="shared" si="8"/>
         <v>7090</v>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="J136" s="29"/>
     </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="59" t="str">
         <f t="shared" si="8"/>
         <v>6208</v>
@@ -5206,7 +5206,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="59" t="str">
         <f t="shared" si="8"/>
         <v>7053</v>
@@ -5230,7 +5230,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="29"/>
     </row>
-    <row r="139" spans="1:11" s="70" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="70" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="59" t="str">
         <f t="shared" si="8"/>
         <v>7103</v>
@@ -20522,7 +20522,13 @@
       <c r="J1664" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:K140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:K140" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
